--- a/powershell/xls2xlsx/work/1.xlsx
+++ b/powershell/xls2xlsx/work/1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{043B2E6C-94DD-4458-A999-9805029C82C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{319DB7A5-3AD5-4116-897E-7087CB0A52D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -372,7 +372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/powershell/xls2xlsx/work/1.xlsx
+++ b/powershell/xls2xlsx/work/1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{319DB7A5-3AD5-4116-897E-7087CB0A52D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FAFF3EC-9276-4988-A47E-8C424AF4C6C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="22260" windowHeight="12645"/>
   </bookViews>

--- a/powershell/xls2xlsx/work/1.xlsx
+++ b/powershell/xls2xlsx/work/1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FAFF3EC-9276-4988-A47E-8C424AF4C6C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D95BC16B-E105-4E2E-96C9-E94BE6150FE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
